--- a/RMPP/Exe 8.4G.xlsx
+++ b/RMPP/Exe 8.4G.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/MyPortfolio/RMPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABD647-9AF4-6140-84EA-C75D27C3EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4454EAC-B21E-A04A-A089-BDEC50CE2163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="2160" windowWidth="28600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Batch</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Agent 2 Distribution</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Data Point 1 from the second diagram appears to be a point that is outside the norm this so this shoud really be excluded from any analsys.</t>
+  </si>
+  <si>
+    <t>Average (Mean) numbers of impurities for filtration agents 1 and 2 were 8.25 and 8.68 thus we can see that contanimation was lower for Agent 1 by Approx 0.43333 per agent. Based on this Agent 1 should be used. if we remove the outlier point this changes the mean from 8.68 to 8.89 a difference of 0.64 so our choice to use agent 1 still stands.</t>
   </si>
 </sst>
 </file>
@@ -201,15 +210,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2480,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2493,6 +2504,7 @@
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="12" max="12" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -2517,8 +2529,11 @@
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2539,12 +2554,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="L2" t="str">
-        <f>"|"&amp;A2&amp;"|"&amp;B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"</f>
-        <v>|1|7.7|8.5|0.336063501065348|0.378315275917231|</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2569,9 +2583,8 @@
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L15" si="1">"|"&amp;A3&amp;"|"&amp;B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"</f>
-        <v>|2|9.2|9.6|0.2531642103112|0.2602222768236|</v>
+      <c r="L3" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2585,7 +2598,7 @@
         <v>6.4</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D13" si="2">_xlfn.NORM.DIST(B4,AVERAGE($B$1:$B$13),STDEV($B$1:$B$13),FALSE)</f>
+        <f t="shared" ref="D4:D13" si="1">_xlfn.NORM.DIST(B4,AVERAGE($B$1:$B$13),STDEV($B$1:$B$13),FALSE)</f>
         <v>0.14366938547078251</v>
       </c>
       <c r="E4">
@@ -2603,10 +2616,6 @@
         <f>AVERAGE(C2:C13)</f>
         <v>8.6833333333333336</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>|3|6.8|6.4|0.143669385470783|0.034221713018996|</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -2619,7 +2628,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18538789281737814</v>
       </c>
       <c r="E5">
@@ -2637,10 +2646,6 @@
         <f>VAR(C2:C13)</f>
         <v>1.077878787878779</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>|4|9.5|9.8|0.185387892817378|0.21548559494488|</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -2653,7 +2658,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.35230963499227713</v>
       </c>
       <c r="E6">
@@ -2669,10 +2674,6 @@
       <c r="I6" s="3">
         <v>12</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>|5|8.7|9.3|0.352309634992277|0.322118097325476|</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -2685,7 +2686,7 @@
         <v>7.6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16397329297487509</v>
       </c>
       <c r="E7">
@@ -2700,10 +2701,6 @@
         <v>0.90105581177249228</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>|6|6.9|7.6|0.163973292974875|0.222941965439603|</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -2716,7 +2713,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.29724400057038258</v>
       </c>
       <c r="E8">
@@ -2730,10 +2727,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>|7|7.5|8.2|0.297244000570383|0.344796056280257|</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -2746,7 +2739,7 @@
         <v>7.7</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20762946420585809</v>
       </c>
       <c r="E9">
@@ -2760,10 +2753,6 @@
         <v>11</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>|8|7.1|7.7|0.207629464205858|0.245372827026605|</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -2776,7 +2765,7 @@
         <v>9.4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.35230963499227713</v>
       </c>
       <c r="E10">
@@ -2790,10 +2779,6 @@
         <v>-3.2639385914780683</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
-        <v>|9|8.7|9.4|0.352309634992277|0.302798741908548|</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -2806,7 +2791,7 @@
         <v>8.9</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20762946420585895</v>
       </c>
       <c r="E11">
@@ -2820,10 +2805,6 @@
         <v>3.7729973151557402E-3</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
-        <v>|10|9.4|8.9|0.207629464205859|0.37598262187578|</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -2836,7 +2817,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20762946420585895</v>
       </c>
       <c r="E12">
@@ -2850,10 +2831,6 @@
         <v>1.7958848187040399</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v>|11|9.4|9.7|0.207629464205859|0.23790081903867|</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -2866,7 +2843,7 @@
         <v>9.1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.3835572814471121</v>
       </c>
       <c r="E13">
@@ -2880,10 +2857,6 @@
         <v>7.5459946303114899E-3</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
-        <v>|12|8.1|9.1|0.383557281447112|0.354527367789783|</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G14" s="3" t="s">
@@ -2893,19 +2866,11 @@
         <v>2.2009851600916401</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>||||||</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>||||||</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G16" s="7" t="s">
@@ -2918,88 +2883,88 @@
       <c r="I16" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3030,118 +2995,111 @@
     </row>
     <row r="2" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>8.2500000000000018</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>8.6833333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>1.059090909090876</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>1.077878787878779</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>0.90105581177249228</v>
       </c>
-      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>-3.2639385914780683</v>
       </c>
-      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>3.7729973151557402E-3</v>
       </c>
-      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>1.7958848187040399</v>
       </c>
-      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>7.5459946303114899E-3</v>
       </c>
-      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>2.2009851600916401</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
